--- a/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/upload/files/DemandDetailUpload.xlsx
+++ b/aspnet-core/src/HC.WeChat.Web.Host/wwwroot/upload/files/DemandDetailUpload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perha\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2418CD-DBAD-4EF7-83C8-19444659D61B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09053A3-F8E8-4548-AFA6-9FCBA6C598DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3450" yWindow="1110" windowWidth="21600" windowHeight="14490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
   <si>
     <t>零售户编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,32 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杨帆1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨帆2</t>
-  </si>
-  <si>
-    <t>杨帆3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨帆4</t>
-  </si>
-  <si>
-    <t>杨帆5</t>
-  </si>
-  <si>
-    <t>杨帆6</t>
-  </si>
-  <si>
-    <t>杨帆7</t>
-  </si>
-  <si>
-    <t>杨帆8</t>
-  </si>
-  <si>
     <t>宽窄1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,137 +91,47 @@
     <t>宽窄9</t>
   </si>
   <si>
-    <t>2</t>
+    <t>宽窄10</t>
+  </si>
+  <si>
+    <t>宽窄11</t>
+  </si>
+  <si>
+    <t>宽窄12</t>
+  </si>
+  <si>
+    <t>宽窄13</t>
+  </si>
+  <si>
+    <t>宽窄14</t>
+  </si>
+  <si>
+    <t>宽窄15</t>
+  </si>
+  <si>
+    <t>宽窄16</t>
+  </si>
+  <si>
+    <t>宽窄17</t>
+  </si>
+  <si>
+    <t>宽窄18</t>
+  </si>
+  <si>
+    <t>宽窄19</t>
+  </si>
+  <si>
+    <t>宽窄20</t>
+  </si>
+  <si>
+    <t>宽窄21</t>
+  </si>
+  <si>
+    <t>112233</t>
+  </si>
+  <si>
+    <t>112233</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>杨帆9</t>
-  </si>
-  <si>
-    <t>杨帆10</t>
-  </si>
-  <si>
-    <t>杨帆11</t>
-  </si>
-  <si>
-    <t>杨帆12</t>
-  </si>
-  <si>
-    <t>杨帆13</t>
-  </si>
-  <si>
-    <t>杨帆14</t>
-  </si>
-  <si>
-    <t>杨帆15</t>
-  </si>
-  <si>
-    <t>杨帆16</t>
-  </si>
-  <si>
-    <t>杨帆17</t>
-  </si>
-  <si>
-    <t>杨帆18</t>
-  </si>
-  <si>
-    <t>杨帆19</t>
-  </si>
-  <si>
-    <t>杨帆20</t>
-  </si>
-  <si>
-    <t>宽窄10</t>
-  </si>
-  <si>
-    <t>宽窄11</t>
-  </si>
-  <si>
-    <t>宽窄12</t>
-  </si>
-  <si>
-    <t>宽窄13</t>
-  </si>
-  <si>
-    <t>宽窄14</t>
-  </si>
-  <si>
-    <t>宽窄15</t>
-  </si>
-  <si>
-    <t>宽窄16</t>
-  </si>
-  <si>
-    <t>宽窄17</t>
-  </si>
-  <si>
-    <t>宽窄18</t>
-  </si>
-  <si>
-    <t>宽窄19</t>
-  </si>
-  <si>
-    <t>宽窄20</t>
-  </si>
-  <si>
-    <t>宽窄21</t>
   </si>
 </sst>
 </file>
@@ -648,7 +532,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -687,14 +571,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
         <v>10</v>
@@ -714,13 +598,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2">
         <v>10</v>
@@ -740,13 +624,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2">
         <v>10</v>
@@ -766,13 +650,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
         <v>10</v>
@@ -792,13 +676,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
         <v>10</v>
@@ -821,10 +705,10 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2">
         <v>10</v>
@@ -844,13 +728,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
         <v>10</v>
@@ -870,13 +754,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
         <v>10</v>
@@ -896,13 +780,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2">
         <v>10</v>
@@ -922,13 +806,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
         <v>10</v>
@@ -948,13 +832,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2">
         <v>10</v>
@@ -974,13 +858,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2">
         <v>10</v>
@@ -1000,13 +884,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2">
         <v>10</v>
@@ -1026,13 +910,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D15" s="2">
         <v>10</v>
@@ -1052,13 +936,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2">
         <v>10</v>
@@ -1078,13 +962,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2">
         <v>10</v>
@@ -1104,13 +988,13 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2">
         <v>10</v>
@@ -1130,13 +1014,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2">
         <v>10</v>
@@ -1156,13 +1040,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>10</v>
@@ -1182,13 +1066,13 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>10</v>
@@ -1208,13 +1092,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>10</v>
